--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68107.99351371916</v>
+        <v>60461.27343414281</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33820905.08186079</v>
+        <v>33820905.0818608</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3592081.845356933</v>
+        <v>3592081.845356932</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>349.2044960949145</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>349.2044960949145</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>32.71280890777675</v>
+        <v>37.06264043514133</v>
       </c>
       <c r="H8" t="n">
-        <v>274.8665112526248</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>57.51109653301001</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>213.0055831922491</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>349.2044960949156</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.2044960949156</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>349.2044960949156</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>349.2044960949145</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>110.3776096307365</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>67.45563055024796</v>
+        <v>126.4820549127846</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5340933528836</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>197.1263427586206</v>
@@ -1280,7 +1280,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>69.74417507380387</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.4372549615422</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>148.9683038971907</v>
       </c>
       <c r="T10" t="n">
-        <v>58.09590267598971</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6215012523591</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>135.8737500228534</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>188.2260173735682</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.2689840820862</v>
+        <v>189.2656196638199</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>399.6990057452804</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>319.235912366807</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>68.37820104174853</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>65.7428851599598</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>168.7235039742208</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>225.6984597147452</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>94.44887516666009</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>137.6384805602083</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2064,10 +2064,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>253.8033332034365</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>81.12317875661097</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>141.05024842887</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>190.4536394300522</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2320,19 +2320,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>357.2813273709876</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>149.6157531058527</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>17.75123914303109</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>53.1911703338642</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>178.4933360861947</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>364.9295645036734</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>89.30668535812433</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.96684102370185</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2797,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>151.6762381225169</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -2851,13 +2851,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>224.285978493914</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>81.04499162466415</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>170.3034090720313</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3040,10 +3040,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>315.1723433222103</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>276.6628177496845</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.55349484584004</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -3240,7 +3240,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>13.63374563335429</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>156.701289099429</v>
+        <v>300.4296660828279</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>60.07073011995545</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>172.5998412330484</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>184.3415781845977</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>147.9298082149603</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>75.0311791538914</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>417.2900353590661</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>310.5921507356551</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3900,13 +3900,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>94.13208900788005</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3918,7 +3918,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>81.9441177437408</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>389.3462133842893</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>338.6830497639212</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>18.58065792654969</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>7.722803593221053</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.6225416677969</v>
+        <v>418.1051844654273</v>
       </c>
       <c r="C8" t="n">
-        <v>338.6225416677969</v>
+        <v>418.1051844654273</v>
       </c>
       <c r="D8" t="n">
-        <v>338.6225416677969</v>
+        <v>418.1051844654273</v>
       </c>
       <c r="E8" t="n">
-        <v>338.6225416677969</v>
+        <v>65.37337022813995</v>
       </c>
       <c r="F8" t="n">
-        <v>338.6225416677969</v>
+        <v>65.37337022813995</v>
       </c>
       <c r="G8" t="n">
-        <v>305.5793003468103</v>
+        <v>27.93635968759316</v>
       </c>
       <c r="H8" t="n">
-        <v>27.93635968759325</v>
+        <v>27.93635968759316</v>
       </c>
       <c r="I8" t="n">
-        <v>69.91017943280799</v>
+        <v>69.91017943280758</v>
       </c>
       <c r="J8" t="n">
-        <v>163.2153090234229</v>
+        <v>163.2153090234222</v>
       </c>
       <c r="K8" t="n">
-        <v>303.055511420067</v>
+        <v>303.0555114200658</v>
       </c>
       <c r="L8" t="n">
-        <v>476.5396480096598</v>
+        <v>476.5396480096582</v>
       </c>
       <c r="M8" t="n">
-        <v>669.5741767800753</v>
+        <v>669.574176780073</v>
       </c>
       <c r="N8" t="n">
-        <v>865.7322060373825</v>
+        <v>865.7322060373797</v>
       </c>
       <c r="O8" t="n">
-        <v>1050.958670678225</v>
+        <v>1050.958670678222</v>
       </c>
       <c r="P8" t="n">
-        <v>1209.04517288347</v>
+        <v>1209.045172883466</v>
       </c>
       <c r="Q8" t="n">
-        <v>1327.761552365683</v>
+        <v>1327.761552365679</v>
       </c>
       <c r="R8" t="n">
-        <v>1396.817984379662</v>
+        <v>1396.817984379658</v>
       </c>
       <c r="S8" t="n">
-        <v>1396.817984379662</v>
+        <v>1338.725967679648</v>
       </c>
       <c r="T8" t="n">
-        <v>1396.817984379662</v>
+        <v>1123.568812940002</v>
       </c>
       <c r="U8" t="n">
-        <v>1396.817984379662</v>
+        <v>1123.568812940002</v>
       </c>
       <c r="V8" t="n">
-        <v>1044.086170142374</v>
+        <v>1123.568812940002</v>
       </c>
       <c r="W8" t="n">
-        <v>691.3543559050854</v>
+        <v>1123.568812940002</v>
       </c>
       <c r="X8" t="n">
-        <v>338.6225416677969</v>
+        <v>1123.568812940002</v>
       </c>
       <c r="Y8" t="n">
-        <v>338.6225416677969</v>
+        <v>770.8369987027147</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>491.772310785355</v>
+        <v>491.7723107853549</v>
       </c>
       <c r="C9" t="n">
-        <v>385.3158496219973</v>
+        <v>385.3158496219972</v>
       </c>
       <c r="D9" t="n">
-        <v>290.2255607685506</v>
+        <v>290.2255607685505</v>
       </c>
       <c r="E9" t="n">
-        <v>196.1051460955043</v>
+        <v>196.1051460955042</v>
       </c>
       <c r="F9" t="n">
-        <v>112.7213077116659</v>
+        <v>112.7213077116658</v>
       </c>
       <c r="G9" t="n">
-        <v>27.93635968759325</v>
+        <v>27.93635968759316</v>
       </c>
       <c r="H9" t="n">
-        <v>27.93635968759325</v>
+        <v>27.93635968759316</v>
       </c>
       <c r="I9" t="n">
-        <v>48.18794426785064</v>
+        <v>48.18794426785048</v>
       </c>
       <c r="J9" t="n">
-        <v>103.759840247892</v>
+        <v>391.0624309368455</v>
       </c>
       <c r="K9" t="n">
-        <v>198.7410618391449</v>
+        <v>486.0436525280982</v>
       </c>
       <c r="L9" t="n">
-        <v>326.4550356793541</v>
+        <v>613.757626368307</v>
       </c>
       <c r="M9" t="n">
-        <v>672.1674868133206</v>
+        <v>762.7938099608502</v>
       </c>
       <c r="N9" t="n">
-        <v>1017.879937947287</v>
+        <v>915.7745378620833</v>
       </c>
       <c r="O9" t="n">
-        <v>1172.894794774926</v>
+        <v>1055.722016680583</v>
       </c>
       <c r="P9" t="n">
-        <v>1285.214984514448</v>
+        <v>1168.042206420104</v>
       </c>
       <c r="Q9" t="n">
-        <v>1360.298056823214</v>
+        <v>1243.125278728869</v>
       </c>
       <c r="R9" t="n">
-        <v>1396.817984379662</v>
+        <v>1396.817984379658</v>
       </c>
       <c r="S9" t="n">
-        <v>1396.817984379662</v>
+        <v>1396.817984379658</v>
       </c>
       <c r="T9" t="n">
-        <v>1328.680983823856</v>
+        <v>1269.058332952603</v>
       </c>
       <c r="U9" t="n">
-        <v>1152.383919831045</v>
+        <v>1269.058332952603</v>
       </c>
       <c r="V9" t="n">
-        <v>953.2664018930441</v>
+        <v>1069.940815014602</v>
       </c>
       <c r="W9" t="n">
-        <v>767.9436476262381</v>
+        <v>884.6180607477961</v>
       </c>
       <c r="X9" t="n">
-        <v>613.0762118651181</v>
+        <v>729.750624986676</v>
       </c>
       <c r="Y9" t="n">
-        <v>613.0762118651181</v>
+        <v>603.2648457658968</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.93635968759325</v>
+        <v>782.4999270073758</v>
       </c>
       <c r="C10" t="n">
-        <v>27.93635968759325</v>
+        <v>609.9382154906008</v>
       </c>
       <c r="D10" t="n">
-        <v>27.93635968759325</v>
+        <v>539.4895537998898</v>
       </c>
       <c r="E10" t="n">
-        <v>27.93635968759325</v>
+        <v>369.731550050627</v>
       </c>
       <c r="F10" t="n">
-        <v>27.93635968759325</v>
+        <v>193.0244960123832</v>
       </c>
       <c r="G10" t="n">
-        <v>27.93635968759325</v>
+        <v>27.93635968759316</v>
       </c>
       <c r="H10" t="n">
-        <v>27.93635968759325</v>
+        <v>27.93635968759316</v>
       </c>
       <c r="I10" t="n">
-        <v>27.93635968759325</v>
+        <v>27.93635968759316</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9588127400729</v>
+        <v>149.3800665036354</v>
       </c>
       <c r="K10" t="n">
-        <v>184.2511101175044</v>
+        <v>481.4308184522022</v>
       </c>
       <c r="L10" t="n">
-        <v>257.5655257130063</v>
+        <v>617.9763510236222</v>
       </c>
       <c r="M10" t="n">
-        <v>603.2779768469727</v>
+        <v>695.2761228294945</v>
       </c>
       <c r="N10" t="n">
-        <v>948.9904279809392</v>
+        <v>770.7378788353085</v>
       </c>
       <c r="O10" t="n">
-        <v>1294.702879114905</v>
+        <v>840.4390243458173</v>
       </c>
       <c r="P10" t="n">
-        <v>1354.344250344119</v>
+        <v>1186.151475479783</v>
       </c>
       <c r="Q10" t="n">
-        <v>1395.63684433031</v>
+        <v>1395.636844330306</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.817984379662</v>
+        <v>1396.817984379658</v>
       </c>
       <c r="S10" t="n">
-        <v>1396.817984379662</v>
+        <v>1246.344950140071</v>
       </c>
       <c r="T10" t="n">
-        <v>1338.135254403915</v>
+        <v>1246.344950140071</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.729697583351</v>
+        <v>1246.344950140071</v>
       </c>
       <c r="V10" t="n">
-        <v>772.774189453781</v>
+        <v>1246.344950140071</v>
       </c>
       <c r="W10" t="n">
-        <v>500.7477850400725</v>
+        <v>974.318545726363</v>
       </c>
       <c r="X10" t="n">
-        <v>255.356030373485</v>
+        <v>974.318545726363</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.93635968759325</v>
+        <v>974.318545726363</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.45485054850599</v>
+        <v>593.1107918406053</v>
       </c>
       <c r="C11" t="n">
-        <v>33.45485054850599</v>
+        <v>170.7010626928024</v>
       </c>
       <c r="D11" t="n">
-        <v>33.45485054850599</v>
+        <v>170.7010626928024</v>
       </c>
       <c r="E11" t="n">
-        <v>33.45485054850599</v>
+        <v>170.7010626928024</v>
       </c>
       <c r="F11" t="n">
         <v>33.45485054850599</v>
@@ -5038,19 +5038,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524228</v>
+        <v>83.7982877452425</v>
       </c>
       <c r="J11" t="n">
-        <v>195.5292216073328</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099031</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968689</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M11" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N11" t="n">
         <v>1036.7784573317</v>
@@ -5068,25 +5068,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S11" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T11" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U11" t="n">
-        <v>1413.627678012047</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="V11" t="n">
-        <v>1051.010727945873</v>
+        <v>997.966246429572</v>
       </c>
       <c r="W11" t="n">
-        <v>860.8834376695419</v>
+        <v>593.1107918406053</v>
       </c>
       <c r="X11" t="n">
-        <v>441.7409742488526</v>
+        <v>593.1107918406053</v>
       </c>
       <c r="Y11" t="n">
-        <v>33.45485054850599</v>
+        <v>593.1107918406053</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.967223835246</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C12" t="n">
-        <v>425.5107626718883</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D12" t="n">
-        <v>330.4204738184416</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E12" t="n">
-        <v>236.3000591453953</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F12" t="n">
-        <v>152.9162207615569</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G12" t="n">
         <v>68.24978812594551</v>
@@ -5120,10 +5120,10 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J12" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K12" t="n">
-        <v>564.3193254000266</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L12" t="n">
         <v>758.1833518442032</v>
@@ -5162,10 +5162,10 @@
         <v>934.6243398969084</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7569041357884</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.2711249150092</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.1619045867498</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="C13" t="n">
-        <v>210.1619045867498</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="D13" t="n">
-        <v>210.1619045867498</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="E13" t="n">
-        <v>210.1619045867498</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F13" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G13" t="n">
         <v>33.45485054850599</v>
@@ -5199,25 +5199,25 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J13" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K13" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L13" t="n">
-        <v>557.8138834183841</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M13" t="n">
-        <v>650.3787373454009</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N13" t="n">
-        <v>1064.382512883162</v>
+        <v>775.8694436693074</v>
       </c>
       <c r="O13" t="n">
-        <v>1478.386288420924</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P13" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q13" t="n">
         <v>1667.182735391305</v>
@@ -5229,22 +5229,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.147594009051</v>
+        <v>1481.565133825481</v>
       </c>
       <c r="U13" t="n">
-        <v>1161.747456787786</v>
+        <v>1481.565133825481</v>
       </c>
       <c r="V13" t="n">
-        <v>874.7919486582161</v>
+        <v>1481.565133825481</v>
       </c>
       <c r="W13" t="n">
-        <v>874.7919486582161</v>
+        <v>1209.538729411773</v>
       </c>
       <c r="X13" t="n">
-        <v>629.4001939916286</v>
+        <v>964.1469747451854</v>
       </c>
       <c r="Y13" t="n">
-        <v>401.9805233057369</v>
+        <v>736.7273040592936</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>455.8645796963089</v>
+        <v>1053.699554312449</v>
       </c>
       <c r="C14" t="n">
-        <v>33.45485054850599</v>
+        <v>1053.699554312449</v>
       </c>
       <c r="D14" t="n">
-        <v>33.45485054850599</v>
+        <v>631.2898251646466</v>
       </c>
       <c r="E14" t="n">
-        <v>33.45485054850599</v>
+        <v>631.2898251646466</v>
       </c>
       <c r="F14" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G14" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H14" t="n">
         <v>33.45485054850599</v>
@@ -5308,22 +5308,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T14" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U14" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V14" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="W14" t="n">
-        <v>1267.887072836333</v>
+        <v>1053.699554312449</v>
       </c>
       <c r="X14" t="n">
-        <v>1267.887072836333</v>
+        <v>1053.699554312449</v>
       </c>
       <c r="Y14" t="n">
-        <v>859.6009491359861</v>
+        <v>1053.699554312449</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C15" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D15" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E15" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F15" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G15" t="n">
         <v>68.24978812594551</v>
@@ -5357,25 +5357,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J15" t="n">
-        <v>474.8738748284774</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K15" t="n">
-        <v>605.2485493631989</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L15" t="n">
-        <v>758.183351844203</v>
+        <v>416.9883711887014</v>
       </c>
       <c r="M15" t="n">
-        <v>936.6510528709194</v>
+        <v>595.4560722154181</v>
       </c>
       <c r="N15" t="n">
-        <v>1119.842262896595</v>
+        <v>778.6472822410934</v>
       </c>
       <c r="O15" t="n">
-        <v>1287.426430762205</v>
+        <v>1007.923724417817</v>
       </c>
       <c r="P15" t="n">
-        <v>1421.927499955578</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q15" t="n">
         <v>1511.8379027716</v>
@@ -5387,7 +5387,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T15" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U15" t="n">
         <v>1319.064612101715</v>
@@ -5396,13 +5396,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W15" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X15" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y15" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>444.8434557557039</v>
+        <v>449.130570810555</v>
       </c>
       <c r="C16" t="n">
-        <v>272.2817442389289</v>
+        <v>276.5688592937799</v>
       </c>
       <c r="D16" t="n">
-        <v>203.2128542977687</v>
+        <v>276.5688592937799</v>
       </c>
       <c r="E16" t="n">
-        <v>33.45485054850599</v>
+        <v>276.5688592937799</v>
       </c>
       <c r="F16" t="n">
-        <v>33.45485054850599</v>
+        <v>99.8618052555361</v>
       </c>
       <c r="G16" t="n">
-        <v>33.45485054850599</v>
+        <v>99.8618052555361</v>
       </c>
       <c r="H16" t="n">
         <v>33.45485054850599</v>
@@ -5445,13 +5445,13 @@
         <v>592.940721149037</v>
       </c>
       <c r="M16" t="n">
-        <v>1006.944496686799</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N16" t="n">
-        <v>1097.308365280052</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O16" t="n">
-        <v>1180.774023741878</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P16" t="n">
         <v>1449.542946114066</v>
@@ -5466,22 +5466,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T16" t="n">
-        <v>1429.437390511417</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.037253290152</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V16" t="n">
-        <v>864.0817451605828</v>
+        <v>1385.78701929573</v>
       </c>
       <c r="W16" t="n">
-        <v>864.0817451605828</v>
+        <v>1113.760614882021</v>
       </c>
       <c r="X16" t="n">
-        <v>864.0817451605828</v>
+        <v>868.3688602154339</v>
       </c>
       <c r="Y16" t="n">
-        <v>636.6620744746911</v>
+        <v>640.9491895295421</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1536.329659438081</v>
+        <v>755.070575821621</v>
       </c>
       <c r="C17" t="n">
-        <v>1536.329659438081</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.351417301975</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E17" t="n">
-        <v>874.5766724602698</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
         <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.329659438081</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="Y17" t="n">
-        <v>1536.329659438081</v>
+        <v>925.4983576137632</v>
       </c>
     </row>
     <row r="18">
@@ -5573,49 +5573,49 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q18" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R18" t="n">
         <v>1676.651116233592</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>713.9024503859694</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>541.3407388691943</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>375.462746070717</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>205.7047423214543</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H19" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092383</v>
+        <v>828.1746199579899</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2076.872270709337</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U19" t="n">
-        <v>1798.48563875808</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V19" t="n">
-        <v>1511.53013062851</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W19" t="n">
-        <v>1511.53013062851</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.53013062851</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.110459942618</v>
+        <v>905.7210691049565</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1180.705317421392</v>
+        <v>972.7977975613616</v>
       </c>
       <c r="C20" t="n">
-        <v>1180.705317421392</v>
+        <v>972.7977975613616</v>
       </c>
       <c r="D20" t="n">
-        <v>744.7955325958366</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>744.7955325958366</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001349</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U20" t="n">
-        <v>2026.147351326989</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V20" t="n">
-        <v>2026.147351326989</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W20" t="n">
-        <v>2026.147351326989</v>
+        <v>1381.083921261708</v>
       </c>
       <c r="X20" t="n">
-        <v>1607.0048879063</v>
+        <v>1381.083921261708</v>
       </c>
       <c r="Y20" t="n">
-        <v>1607.0048879063</v>
+        <v>972.7977975613616</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,25 +5822,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987881</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,58 +5886,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>520.9988465953642</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C22" t="n">
-        <v>520.9988465953642</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="D22" t="n">
-        <v>520.9988465953642</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E22" t="n">
-        <v>520.9988465953642</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092378</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
@@ -5946,16 +5946,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942559</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083642</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>1271.873995632967</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>1271.873995632967</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>835.9642108074113</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>835.9642108074113</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>408.096781216619</v>
       </c>
       <c r="G23" t="n">
         <v>47.20655154895474</v>
@@ -5986,19 +5986,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
         <v>1463.013992431967</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2209.200554108492</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>2209.200554108492</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W23" t="n">
-        <v>2209.200554108492</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="X23" t="n">
-        <v>2209.200554108492</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.200554108492</v>
+        <v>1698.173566117875</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>930.5806015906851</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>847.1967632068468</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
-        <v>762.8256627965036</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>730.8830127630997</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>765.0997489345759</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S24" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T24" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U24" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V24" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.081764785142</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="C25" t="n">
-        <v>443.520053268367</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="D25" t="n">
-        <v>277.6420604698897</v>
+        <v>411.6021539253816</v>
       </c>
       <c r="E25" t="n">
-        <v>277.6420604698897</v>
+        <v>241.8441501761188</v>
       </c>
       <c r="F25" t="n">
-        <v>100.9350064316459</v>
+        <v>65.13709613787503</v>
       </c>
       <c r="G25" t="n">
-        <v>100.9350064316459</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
-        <v>100.9350064316459</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>744.992999204955</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M25" t="n">
-        <v>1329.17407462327</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N25" t="n">
-        <v>1898.931789584804</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856609</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041292</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>661.2775954676239</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="C26" t="n">
-        <v>480.9812963906596</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="D26" t="n">
-        <v>480.9812963906596</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895475</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
         <v>118.4065018001355</v>
@@ -6247,31 +6247,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U26" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V26" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W26" t="n">
-        <v>1915.005753073568</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X26" t="n">
-        <v>1495.863289652878</v>
+        <v>1586.856401137888</v>
       </c>
       <c r="Y26" t="n">
-        <v>1087.577165952532</v>
+        <v>1178.570277437541</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,10 +6311,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.0817647851425</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="C28" t="n">
-        <v>616.0817647851425</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="D28" t="n">
-        <v>450.2037719866652</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E28" t="n">
-        <v>280.4457682374024</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F28" t="n">
-        <v>103.7387141991586</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895475</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092384</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.320157362631</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P28" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351144</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399887</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041296</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1062.057047317327</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C29" t="n">
-        <v>1062.057047317327</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
         <v>47.20655154895474</v>
@@ -6460,7 +6460,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
         <v>276.0532770435809</v>
@@ -6469,7 +6469,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1889.485634438363</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W29" t="n">
-        <v>1889.485634438363</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X29" t="n">
-        <v>1470.343171017674</v>
+        <v>854.9953665698242</v>
       </c>
       <c r="Y29" t="n">
-        <v>1062.057047317327</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.291841223631</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C31" t="n">
-        <v>919.7301297068562</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="D31" t="n">
-        <v>753.852136908379</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E31" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F31" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G31" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H31" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895474</v>
@@ -6630,13 +6630,13 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M31" t="n">
-        <v>1236.93553127931</v>
+        <v>1340.193340120866</v>
       </c>
       <c r="N31" t="n">
-        <v>1364.434443083199</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P31" t="n">
         <v>2105.896438675982</v>
@@ -6651,22 +6651,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2043.877393424667</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>2043.877393424667</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1756.921885295098</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W31" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.53013062851</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2101.256885969251</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C32" t="n">
-        <v>1663.114413152674</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.204628327119</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E32" t="n">
-        <v>793.4298834854139</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F32" t="n">
-        <v>365.5624538946217</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W32" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X32" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y32" t="n">
-        <v>2101.256885969251</v>
+        <v>1781.3331245177</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G34" t="n">
         <v>242.6458987333908</v>
@@ -6855,22 +6855,22 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L34" t="n">
-        <v>688.1212571728194</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M34" t="n">
-        <v>818.7256495113488</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N34" t="n">
-        <v>1120.185357954413</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O34" t="n">
         <v>1657.620488527956</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V34" t="n">
-        <v>1408.311674774552</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W34" t="n">
-        <v>1136.285270360843</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X34" t="n">
-        <v>1136.285270360843</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y34" t="n">
-        <v>1136.285270360843</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>1182.938005412413</v>
       </c>
       <c r="C35" t="n">
-        <v>1344.758510807007</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895474</v>
@@ -6937,16 +6937,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
@@ -6955,34 +6955,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W35" t="n">
-        <v>2202.043447044273</v>
+        <v>1182.938005412413</v>
       </c>
       <c r="X35" t="n">
-        <v>1782.900983623584</v>
+        <v>1182.938005412413</v>
       </c>
       <c r="Y35" t="n">
-        <v>1782.900983623584</v>
+        <v>1182.938005412413</v>
       </c>
     </row>
     <row r="36">
@@ -7077,13 +7077,13 @@
         <v>443.520053268367</v>
       </c>
       <c r="D37" t="n">
-        <v>277.6420604698897</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>107.8840567206269</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>107.8840567206269</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G37" t="n">
         <v>47.20655154895474</v>
@@ -7095,25 +7095,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728194</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>818.7256495113488</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N37" t="n">
-        <v>1388.483364472883</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O37" t="n">
-        <v>1925.918495046426</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>475.073981139747</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>475.073981139747</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>475.073981139747</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
         <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7207,19 +7207,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2133.657593334658</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>2133.657593334658</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W38" t="n">
-        <v>1728.802138745691</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X38" t="n">
-        <v>1309.659675325001</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="Y38" t="n">
-        <v>901.3735516246547</v>
+        <v>1957.24425759636</v>
       </c>
     </row>
     <row r="39">
@@ -7232,22 +7232,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>807.9003835041292</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="C40" t="n">
-        <v>635.3386719873541</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="D40" t="n">
-        <v>469.4606791888768</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E40" t="n">
-        <v>299.7026754396141</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F40" t="n">
-        <v>122.9956214013703</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G40" t="n">
-        <v>122.9956214013703</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>358.0754347909403</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092383</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.76150051161</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="C41" t="n">
-        <v>882.6190276950331</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D41" t="n">
-        <v>446.7092428694776</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
         <v>47.20655154895474</v>
@@ -7408,16 +7408,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>2060.790516184048</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V41" t="n">
-        <v>2060.790516184048</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W41" t="n">
-        <v>2060.790516184048</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="X41" t="n">
-        <v>1747.061070996518</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="Y41" t="n">
-        <v>1747.061070996518</v>
+        <v>1330.353812202731</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
         <v>79.1492015823585</v>
@@ -7529,13 +7529,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.291841223631</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>919.7301297068562</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="D43" t="n">
-        <v>753.852136908379</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>358.0754347909399</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092378</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7605,16 +7605,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1756.921885295098</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1486.402314586987</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C44" t="n">
-        <v>1486.402314586987</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D44" t="n">
-        <v>1144.298223916359</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
         <v>276.0532770435809</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W44" t="n">
-        <v>1486.402314586987</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X44" t="n">
-        <v>1486.402314586987</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y44" t="n">
-        <v>1486.402314586987</v>
+        <v>1740.270202216503</v>
       </c>
     </row>
     <row r="45">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.196554659879</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C46" t="n">
-        <v>856.6348431431041</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D46" t="n">
-        <v>690.7568503446269</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="E46" t="n">
-        <v>520.9988465953642</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F46" t="n">
-        <v>344.2917925571204</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>359.5348022487602</v>
       </c>
       <c r="L46" t="n">
-        <v>744.992999204955</v>
+        <v>901.6154856350191</v>
       </c>
       <c r="M46" t="n">
-        <v>1329.17407462327</v>
+        <v>1485.796561053334</v>
       </c>
       <c r="N46" t="n">
-        <v>1898.931789584804</v>
+        <v>2055.554276014868</v>
       </c>
       <c r="O46" t="n">
         <v>2173.32015736263</v>
@@ -7839,19 +7839,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.853003145054</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1965.853003145054</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1693.826598731346</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.434844064758</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y46" t="n">
-        <v>1221.015173378866</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>290.2046370595494</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>198.6628965064875</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>194.6785083158918</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>15.21957374660565</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>64.80649636477494</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>63.86981512719024</v>
       </c>
       <c r="M10" t="n">
-        <v>271.1239185132262</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>272.9805001294468</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>278.799298609553</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>288.9606867724767</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>303.2987441336659</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L12" t="n">
-        <v>41.34265046785094</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>329.5063656617905</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>326.9089969136443</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>333.876885935289</v>
+        <v>177.9839075203757</v>
       </c>
       <c r="P13" t="n">
-        <v>68.61630566193776</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>16.80470271645368</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>62.31542859708463</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>282.3259660044323</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>324.6857794047927</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>199.3430630505377</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042871</v>
+        <v>141.468043217344</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042866</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>158.2045317475399</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042872</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10278,16 +10278,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>104.3008170116725</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10506,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>175.7179764032066</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>264.6463123855406</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>263.871624324937</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10761,10 +10761,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>80.00897722411287</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>69.27619576520644</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>69.27619576520598</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>70.75030430845885</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>158.2045317475397</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>72.83207868514421</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23029,16 +23029,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>80.23250129837328</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>363.5605994576608</v>
+        <v>359.2107679302963</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>274.8665112526249</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>57.51109653300993</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>213.0055831922491</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.5412440803508</v>
       </c>
       <c r="V8" t="n">
-        <v>9.786284470596115</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>51.6024039481614</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>65.74654269156679</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>54.99876636842862</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9.713252438229048</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>35.58015125665765</v>
+        <v>35.58015125665766</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,13 +23150,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>51.78498782804826</v>
+        <v>51.78498782804829</v>
       </c>
       <c r="T9" t="n">
-        <v>59.02642436253666</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>174.5340933528836</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>94.47503779668865</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.4372549615422</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>134.0745261746663</v>
       </c>
       <c r="I10" t="n">
-        <v>72.79390586366188</v>
+        <v>72.79390586366192</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>148.9683038971907</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>183.1964727944525</v>
+        <v>241.2923754704422</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6215012523591</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,7 +23269,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>287.7150052720309</v>
       </c>
       <c r="G11" t="n">
         <v>396.054118850051</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.0456433386444</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>212.5808826695088</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23424,13 +23424,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>133.1999654356588</v>
@@ -23469,16 +23469,16 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
-        <v>10.60310146265707</v>
+        <v>51.60646588092342</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.33756903477831</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>104.3528429280773</v>
       </c>
       <c r="G14" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H14" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>52.51403670113841</v>
       </c>
       <c r="T14" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.5237009191198</v>
@@ -23563,7 +23563,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>95.841011828744</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H16" t="n">
-        <v>133.1999654356588</v>
+        <v>67.45708027569901</v>
       </c>
       <c r="I16" t="n">
         <v>69.83578017384922</v>
@@ -23706,19 +23706,19 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>253.3130708058379</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>205.8522272625547</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>80.49110833120125</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>102.1862712954191</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>177.7473537738634</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>175.3568058070902</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.85018410292727</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>93.63231361822167</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>38.22633703632994</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>106.8642314578485</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>145.3425294405757</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>9.27316336425023</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>255.2677120022163</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>50.02147428280904</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>100.5937471736729</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>107.1269275599049</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24685,16 +24685,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>279.874448854783</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>190.6650602925684</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>89.79110277694316</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>69.52134278359615</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>80.33532108510732</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24985,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>127.5404447136586</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>146.3469376859572</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>211.5117283456785</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>244.105610943648</v>
+        <v>100.3772339602492</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>103.0230384636513</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>249.4367335470103</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>72.13840637910346</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>41.9706243168369</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>55.98944086058586</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811443</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>4.746539420992576</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>104.3588880508273</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>76.70400539372726</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>202.141835304533</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>32.6903613957694</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>92.86763721337866</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>149.4797657852204</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>267.8799620385234</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>264846.6558660252</v>
+        <v>264846.6558660243</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>403048.3806149463</v>
+        <v>403048.3806149462</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>403048.3806149463</v>
+        <v>403048.3806149462</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>403048.3806149464</v>
+        <v>403048.3806149463</v>
       </c>
     </row>
     <row r="12">
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>101689.5789784155</v>
+        <v>101689.5789784151</v>
       </c>
       <c r="E2" t="n">
         <v>121723.475590259</v>
@@ -26328,10 +26328,10 @@
         <v>121723.475590259</v>
       </c>
       <c r="G2" t="n">
+        <v>157297.5713008174</v>
+      </c>
+      <c r="H2" t="n">
         <v>157297.5713008173</v>
-      </c>
-      <c r="H2" t="n">
-        <v>157297.5713008174</v>
       </c>
       <c r="I2" t="n">
         <v>157297.5713008174</v>
@@ -26346,16 +26346,16 @@
         <v>157297.5713008174</v>
       </c>
       <c r="M2" t="n">
-        <v>157297.5713008175</v>
+        <v>157297.5713008174</v>
       </c>
       <c r="N2" t="n">
         <v>157297.5713008174</v>
       </c>
       <c r="O2" t="n">
-        <v>157297.5713008173</v>
+        <v>157297.5713008174</v>
       </c>
       <c r="P2" t="n">
-        <v>157297.5713008173</v>
+        <v>157297.5713008174</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>345034.7384383382</v>
+        <v>345034.7384383371</v>
       </c>
       <c r="E3" t="n">
-        <v>64420.49086773698</v>
+        <v>64420.490867738</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>152798.4169065694</v>
+        <v>152798.4169065693</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>88380.51512115829</v>
+        <v>88380.51512115798</v>
       </c>
       <c r="M3" t="n">
-        <v>17190.37495628623</v>
+        <v>17190.37495628654</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41367.00746823741</v>
+        <v>41367.00746823738</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10925.521627873</v>
+        <v>10925.52162787296</v>
       </c>
       <c r="E4" t="n">
         <v>13056.95251542856</v>
@@ -26447,19 +26447,19 @@
         <v>10272.22173839659</v>
       </c>
       <c r="L4" t="n">
-        <v>10272.22173839658</v>
+        <v>10272.22173839659</v>
       </c>
       <c r="M4" t="n">
         <v>10272.22173839659</v>
       </c>
       <c r="N4" t="n">
+        <v>10272.22173839658</v>
+      </c>
+      <c r="O4" t="n">
         <v>10272.22173839659</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>10272.22173839658</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10272.22173839659</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>60880.89734610799</v>
+        <v>60880.89734610791</v>
       </c>
       <c r="E5" t="n">
         <v>32636.50261996421</v>
@@ -26484,28 +26484,28 @@
         <v>32636.50261996421</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-315151.5784339037</v>
+        <v>-315983.4988387368</v>
       </c>
       <c r="E6" t="n">
-        <v>11609.52958712922</v>
+        <v>10877.77866535347</v>
       </c>
       <c r="F6" t="n">
-        <v>76030.0204548662</v>
+        <v>75298.26953309147</v>
       </c>
       <c r="G6" t="n">
-        <v>-51824.14855378655</v>
+        <v>-52378.02899700824</v>
       </c>
       <c r="H6" t="n">
-        <v>100974.268352783</v>
+        <v>100420.387909561</v>
       </c>
       <c r="I6" t="n">
-        <v>100974.268352783</v>
+        <v>100420.387909561</v>
       </c>
       <c r="J6" t="n">
-        <v>100974.268352783</v>
+        <v>100420.387909561</v>
       </c>
       <c r="K6" t="n">
-        <v>100974.268352783</v>
+        <v>100420.3879095611</v>
       </c>
       <c r="L6" t="n">
-        <v>12593.75323162467</v>
+        <v>12039.87278840307</v>
       </c>
       <c r="M6" t="n">
-        <v>83783.89339649685</v>
+        <v>83230.01295327448</v>
       </c>
       <c r="N6" t="n">
-        <v>100974.268352783</v>
+        <v>100420.387909561</v>
       </c>
       <c r="O6" t="n">
-        <v>59607.26088454553</v>
+        <v>59053.38044132366</v>
       </c>
       <c r="P6" t="n">
-        <v>100974.2683527829</v>
+        <v>100420.3879095611</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>276.2231185108773</v>
+        <v>276.2231185108764</v>
       </c>
       <c r="E3" t="n">
         <v>330.7713854632871</v>
@@ -26752,16 +26752,16 @@
         <v>330.7713854632872</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
         <v>466.7019280932212</v>
@@ -26795,7 +26795,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>349.2044960949156</v>
+        <v>349.2044960949145</v>
       </c>
       <c r="E4" t="n">
         <v>418.1856318563248</v>
@@ -26804,28 +26804,28 @@
         <v>418.1856318563248</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>276.2231185108773</v>
+        <v>276.2231185108765</v>
       </c>
       <c r="E3" t="n">
-        <v>54.54826695240985</v>
+        <v>54.5482669524107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.930542629934</v>
+        <v>135.9305426299338</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>349.2044960949156</v>
+        <v>349.2044960949145</v>
       </c>
       <c r="E4" t="n">
-        <v>68.98113576140923</v>
+        <v>68.98113576141037</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>171.8962625056094</v>
+        <v>171.8962625056092</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>349.2044960949156</v>
+        <v>349.2044960949144</v>
       </c>
       <c r="M4" t="n">
-        <v>68.98113576140923</v>
+        <v>68.98113576141048</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>171.8962625056094</v>
+        <v>171.8962625056093</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>349.2044960949156</v>
+        <v>349.2044960949145</v>
       </c>
       <c r="M4" t="n">
-        <v>68.98113576140923</v>
+        <v>68.98113576141037</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>171.8962625056094</v>
+        <v>171.8962625056092</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.110444697531164</v>
+        <v>1.110444697531161</v>
       </c>
       <c r="H8" t="n">
-        <v>11.37234175859104</v>
+        <v>11.372341758591</v>
       </c>
       <c r="I8" t="n">
-        <v>42.81041920157024</v>
+        <v>42.81041920157011</v>
       </c>
       <c r="J8" t="n">
-        <v>94.24760564708572</v>
+        <v>94.24760564708544</v>
       </c>
       <c r="K8" t="n">
-        <v>141.2527296935799</v>
+        <v>141.2527296935795</v>
       </c>
       <c r="L8" t="n">
-        <v>175.2365016056493</v>
+        <v>175.2365016056488</v>
       </c>
       <c r="M8" t="n">
-        <v>194.9843724953691</v>
+        <v>194.9843724953685</v>
       </c>
       <c r="N8" t="n">
-        <v>198.1394234922296</v>
+        <v>198.139423492229</v>
       </c>
       <c r="O8" t="n">
-        <v>187.0974390311541</v>
+        <v>187.0974390311535</v>
       </c>
       <c r="P8" t="n">
-        <v>159.6833355608534</v>
+        <v>159.6833355608529</v>
       </c>
       <c r="Q8" t="n">
-        <v>119.9155348305186</v>
+        <v>119.9155348305182</v>
       </c>
       <c r="R8" t="n">
-        <v>69.75397173129204</v>
+        <v>69.75397173129183</v>
       </c>
       <c r="S8" t="n">
-        <v>25.30425854499143</v>
+        <v>25.30425854499135</v>
       </c>
       <c r="T8" t="n">
-        <v>4.860971663442673</v>
+        <v>4.860971663442658</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08883557580249311</v>
+        <v>0.08883557580249284</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.594140292646038</v>
+        <v>0.5941402926460361</v>
       </c>
       <c r="H9" t="n">
-        <v>5.738144405291998</v>
+        <v>5.738144405291981</v>
       </c>
       <c r="I9" t="n">
-        <v>20.45614604066403</v>
+        <v>20.45614604066396</v>
       </c>
       <c r="J9" t="n">
-        <v>56.13322826266801</v>
+        <v>56.13322826266783</v>
       </c>
       <c r="K9" t="n">
-        <v>95.94062786995254</v>
+        <v>95.94062786995224</v>
       </c>
       <c r="L9" t="n">
-        <v>129.0040139800093</v>
+        <v>129.0040139800089</v>
       </c>
       <c r="M9" t="n">
-        <v>150.5415995884281</v>
+        <v>150.5415995884276</v>
       </c>
       <c r="N9" t="n">
-        <v>154.5259877790237</v>
+        <v>154.5259877790232</v>
       </c>
       <c r="O9" t="n">
-        <v>141.3610897156562</v>
+        <v>141.3610897156558</v>
       </c>
       <c r="P9" t="n">
-        <v>113.4547371106281</v>
+        <v>113.4547371106277</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.84148718057145</v>
+        <v>75.84148718057121</v>
       </c>
       <c r="R9" t="n">
-        <v>36.88881571358472</v>
+        <v>36.88881571358461</v>
       </c>
       <c r="S9" t="n">
-        <v>11.0358953480525</v>
+        <v>11.03589534805246</v>
       </c>
       <c r="T9" t="n">
-        <v>2.394802319919775</v>
+        <v>2.394802319919767</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03908817714776567</v>
+        <v>0.03908817714776554</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4981072628884671</v>
+        <v>0.4981072628884656</v>
       </c>
       <c r="H10" t="n">
-        <v>4.42862639186292</v>
+        <v>4.428626391862907</v>
       </c>
       <c r="I10" t="n">
-        <v>14.97944386940954</v>
+        <v>14.9794438694095</v>
       </c>
       <c r="J10" t="n">
-        <v>35.21618348621463</v>
+        <v>35.21618348621452</v>
       </c>
       <c r="K10" t="n">
-        <v>57.87100745195099</v>
+        <v>57.87100745195081</v>
       </c>
       <c r="L10" t="n">
-        <v>74.05496524798176</v>
+        <v>74.05496524798153</v>
       </c>
       <c r="M10" t="n">
-        <v>78.08057758168944</v>
+        <v>78.0805775816892</v>
       </c>
       <c r="N10" t="n">
-        <v>76.22399596546884</v>
+        <v>76.22399596546862</v>
       </c>
       <c r="O10" t="n">
-        <v>70.40519748536263</v>
+        <v>70.40519748536242</v>
       </c>
       <c r="P10" t="n">
-        <v>60.24380932243785</v>
+        <v>60.24380932243767</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.70969089514247</v>
+        <v>41.70969089514234</v>
       </c>
       <c r="R10" t="n">
-        <v>22.39671383860325</v>
+        <v>22.39671383860318</v>
       </c>
       <c r="S10" t="n">
-        <v>8.680651117792648</v>
+        <v>8.680651117792621</v>
       </c>
       <c r="T10" t="n">
-        <v>2.128276486887086</v>
+        <v>2.12827648688708</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02716948706664369</v>
+        <v>0.02716948706664361</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32940,13 +32940,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -32955,10 +32955,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917233</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,19 +33125,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,10 +34204,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34216,7 +34216,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -34228,22 +34228,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,10 +34310,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>42.39779772243885</v>
+        <v>42.39779772243872</v>
       </c>
       <c r="J8" t="n">
-        <v>94.24760564708572</v>
+        <v>94.24760564708544</v>
       </c>
       <c r="K8" t="n">
-        <v>141.2527296935799</v>
+        <v>141.2527296935795</v>
       </c>
       <c r="L8" t="n">
-        <v>175.2365016056493</v>
+        <v>175.2365016056488</v>
       </c>
       <c r="M8" t="n">
-        <v>194.9843724953691</v>
+        <v>194.9843724953685</v>
       </c>
       <c r="N8" t="n">
-        <v>198.1394234922296</v>
+        <v>198.139423492229</v>
       </c>
       <c r="O8" t="n">
-        <v>187.0974390311541</v>
+        <v>187.0974390311536</v>
       </c>
       <c r="P8" t="n">
-        <v>159.6833355608535</v>
+        <v>159.6833355608528</v>
       </c>
       <c r="Q8" t="n">
-        <v>119.9155348305185</v>
+        <v>119.9155348305183</v>
       </c>
       <c r="R8" t="n">
-        <v>69.75397173129204</v>
+        <v>69.75397173129181</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.45614604066403</v>
+        <v>20.45614604066397</v>
       </c>
       <c r="J9" t="n">
-        <v>56.13322826266801</v>
+        <v>346.3378653222172</v>
       </c>
       <c r="K9" t="n">
-        <v>95.94062786995252</v>
+        <v>95.94062786995221</v>
       </c>
       <c r="L9" t="n">
-        <v>129.0040139800093</v>
+        <v>129.0040139800088</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2044960949156</v>
+        <v>150.5415995884276</v>
       </c>
       <c r="N9" t="n">
-        <v>349.2044960949155</v>
+        <v>154.5259877790232</v>
       </c>
       <c r="O9" t="n">
-        <v>156.5806634622618</v>
+        <v>141.3610897156558</v>
       </c>
       <c r="P9" t="n">
-        <v>113.454737110628</v>
+        <v>113.4547371106278</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.84148718057145</v>
+        <v>75.84148718057122</v>
       </c>
       <c r="R9" t="n">
-        <v>36.88881571358479</v>
+        <v>155.2451572230186</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,31 +35330,31 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>100.0226798509896</v>
+        <v>122.6704109252952</v>
       </c>
       <c r="K10" t="n">
-        <v>57.87100745195099</v>
+        <v>335.4047999480473</v>
       </c>
       <c r="L10" t="n">
-        <v>74.05496524798176</v>
+        <v>137.9247803751717</v>
       </c>
       <c r="M10" t="n">
-        <v>349.2044960949156</v>
+        <v>78.08057758168923</v>
       </c>
       <c r="N10" t="n">
-        <v>349.2044960949156</v>
+        <v>76.22399596546859</v>
       </c>
       <c r="O10" t="n">
-        <v>349.2044960949156</v>
+        <v>70.40519748536246</v>
       </c>
       <c r="P10" t="n">
-        <v>60.24380932243776</v>
+        <v>349.2044960949145</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.70969089514256</v>
+        <v>211.6013826772962</v>
       </c>
       <c r="R10" t="n">
-        <v>1.193070756921419</v>
+        <v>1.193070756921347</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M11" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667433</v>
@@ -35488,13 +35488,13 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J12" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K12" t="n">
-        <v>418.1856318563248</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L12" t="n">
-        <v>195.8222489335117</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M12" t="n">
         <v>180.2704050774914</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L13" t="n">
-        <v>418.1856318563249</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M13" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N13" t="n">
-        <v>418.1856318563249</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O13" t="n">
+        <v>262.2926534414116</v>
+      </c>
+      <c r="P13" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="P13" t="n">
-        <v>140.7570025833077</v>
-      </c>
       <c r="Q13" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R13" t="n">
         <v>5.615951549488944</v>
@@ -35725,25 +35725,25 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J15" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K15" t="n">
-        <v>131.6915904391126</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L15" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M15" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N15" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>169.2769372379901</v>
+        <v>231.5923658350746</v>
       </c>
       <c r="P15" t="n">
-        <v>135.8596658518925</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q15" t="n">
         <v>90.818588703052</v>
@@ -35813,16 +35813,16 @@
         <v>88.67926619453442</v>
       </c>
       <c r="M16" t="n">
-        <v>418.1856318563248</v>
+        <v>271.4837599719077</v>
       </c>
       <c r="N16" t="n">
         <v>91.27663494268063</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103601</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P16" t="n">
-        <v>271.4837599719076</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q16" t="n">
         <v>219.8381709871101</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233713</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409517</v>
+        <v>266.5900650540085</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36223,7 +36223,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409512</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
@@ -36372,7 +36372,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548414</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562359</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811311</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36457,10 +36457,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>277.1599674523497</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -36603,16 +36603,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916774</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.9630089646691</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>281.8524450409518</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>575.512843395489</v>
@@ -36770,13 +36770,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36852,7 +36852,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36998,16 +36998,16 @@
         <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247772</v>
+        <v>236.2244456364497</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
         <v>240.36368292423</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -37077,13 +37077,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691673</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37168,10 +37168,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>304.5047560030951</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561043</v>
+        <v>383.6017480903504</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>395.7952529497143</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>181.7959026561164</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37557,7 +37557,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>167.0540751263764</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847587</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37788,7 +37788,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>167.0540751263759</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,7 +38016,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
@@ -38025,10 +38025,10 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -38037,7 +38037,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>168.5281836696288</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
         <v>590.0818943619342</v>
@@ -38189,7 +38189,7 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>277.1599674523495</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
